--- a/biology/Botanique/André_Jullien_(œnologue)/André_Jullien_(œnologue).xlsx
+++ b/biology/Botanique/André_Jullien_(œnologue)/André_Jullien_(œnologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Jullien_(%C5%93nologue)</t>
+          <t>André_Jullien_(œnologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine André Jullien, fils de Pierre Rémy Jullien et de Jeanne Antoinette Delachasse, né à Chalon-sur-Saône le 10 novembre 1766 et mort du choléra dans l'ancien 2e arrondissement de Paris le 21 juillet 1832, est un négociant en vin, œnologue et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Jullien_(%C5%93nologue)</t>
+          <t>André_Jullien_(œnologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vers l'âge de trente ans, Jullien s'établit à Paris et ouvre un commerce de vins en gros. Il était négociant en vin au 18 de la rue Saint-Sauveur et s'est toute sa vie occupé de leur amélioration[1]. Il invente notamment des cannelles aérifères pour transvaser les vins en bouteille et une poudre pour réaliser leur clarification. Il obtient des médailles lors de diverses expositions. Ses travaux obtinrent les suffrages du ministre Jean-Antoine Chaptal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers l'âge de trente ans, Jullien s'établit à Paris et ouvre un commerce de vins en gros. Il était négociant en vin au 18 de la rue Saint-Sauveur et s'est toute sa vie occupé de leur amélioration. Il invente notamment des cannelles aérifères pour transvaser les vins en bouteille et une poudre pour réaliser leur clarification. Il obtient des médailles lors de diverses expositions. Ses travaux obtinrent les suffrages du ministre Jean-Antoine Chaptal.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Jullien_(%C5%93nologue)</t>
+          <t>André_Jullien_(œnologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Topographie de tous les vignobles connus, contenant : leur position géographique, l'indication du genre et de la qualité des produits de chaque cru, les lieux où se font les chargements et le principal commerce de vin, le nom et la capacité des tonneaux et des mesures en usage, les moyens de transport ordinairement employés, suivie d'une classification générale de vins. Paris, l'Auteur, Mad. Huzard, Colas, 1re édition en 1816[2], 2e édition en 1822 (La notice sur les vins de l'Antiquité est nouvelle)[3]. Première édition anglaise en 1824[4]. 4e édition en 1848[5], 5e édition en 1866[6].
-La troisième édition française de 1832 comporte des changements importants : refonte, correction et augmentation de tous les chapitres, chapitres neuf dans la seconde partie, description augmentée des vignobles d'Allemagne, de Russie méridionale, de Turquie, de Grèce, d'Asie, d'Afrique et d'Amérique, notice topographique assez détaillée des vins anciens[7]. Un chapitre est ajouté : "Les tarifs des douanes de France et des pays étrangers."
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Topographie de tous les vignobles connus, contenant : leur position géographique, l'indication du genre et de la qualité des produits de chaque cru, les lieux où se font les chargements et le principal commerce de vin, le nom et la capacité des tonneaux et des mesures en usage, les moyens de transport ordinairement employés, suivie d'une classification générale de vins. Paris, l'Auteur, Mad. Huzard, Colas, 1re édition en 1816, 2e édition en 1822 (La notice sur les vins de l'Antiquité est nouvelle). Première édition anglaise en 1824. 4e édition en 1848, 5e édition en 1866.
+La troisième édition française de 1832 comporte des changements importants : refonte, correction et augmentation de tous les chapitres, chapitres neuf dans la seconde partie, description augmentée des vignobles d'Allemagne, de Russie méridionale, de Turquie, de Grèce, d'Asie, d'Afrique et d'Amérique, notice topographique assez détaillée des vins anciens. Un chapitre est ajouté : "Les tarifs des douanes de France et des pays étrangers."
 L'Académie des sciences de l'Institut de France décerna le prix Montyon de statistiques à cette édition de 1832 lors de sa séance du 15 octobre 1832.
 Ce livre, intéressant non seulement pour les vins de France mais pour ceux du monde entier, traite des vignobles du Portugal, de l'Afrique, du Rhin et de La Moselle, de l'Espagne, de l'Italie, de la Turquie, de la Suisse, de l'Autriche, de la Russie, de la Californie « La vigne y est cultivée avec succès. Les premiers colons y trouvèrent en 1769 des ceps sauvages.. les missionnaires y ont porté des plants d'Europe qui y ont bien réussi : San Diego, Capistrano, San Gabriel, Santa Barbara, San Luis Obispo, San José... » ; Les vins du Chili, de Syrie, de Hongrie. Un article est consacré à une eau-de-vie chinoise faite de lait et de chair de mouton ; l'araka des Tartares, etc.
-Manuel du sommelier, ou instruction pratique sur la manière de soigner les vins, Auteur, Colas, Mme Huzard, Paris, 1822[8].
+Manuel du sommelier, ou instruction pratique sur la manière de soigner les vins, Auteur, Colas, Mme Huzard, Paris, 1822.
 Appareils perfectionnés propres à transvaser les vins et autres liqueurs avec ou sans communication avec l'air extérieur, Paris, 1832.</t>
         </is>
       </c>
